--- a/Funder_Contract_Info.xlsx
+++ b/Funder_Contract_Info.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\repos\Code Repos\doi-parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1A94FC-9C0D-455C-9CD0-4D0F169E84F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{29788E2F-33C8-4925-B4FF-3DF1972C19A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{233C8D30-E45A-4D2C-8AD9-7093AC20D128}"/>
   </bookViews>
   <sheets>
     <sheet name="contract_funder_info" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'contract_funder_info'!$A$1:$F$193</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">contract_funder_info!$A$1:$F$219</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="511">
   <si>
     <t>contact_number</t>
   </si>
@@ -80,9 +81,6 @@
     <t>https://www.transportation.gov/grants/smart/2022</t>
   </si>
   <si>
-    <t>FY22 SMART Stage 1 Awards</t>
-  </si>
-  <si>
     <t>Alaska Rural Remote Operations Workplan (ARROW Program)</t>
   </si>
   <si>
@@ -440,9 +438,6 @@
     <t>https://www.transportation.gov/grants/smart/2023</t>
   </si>
   <si>
-    <t>FY23 SMART Stage 1 Awards</t>
-  </si>
-  <si>
     <t>Enhancing Safety &amp; Equitable Accessibility in Talladega By Employing Latest Technologies (ESEATBELT)</t>
   </si>
   <si>
@@ -533,9 +528,6 @@
     <t>69A3552441021 </t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>69A3552441023</t>
   </si>
   <si>
@@ -650,9 +642,6 @@
     <t>https://www.transportation.gov/grants/smart/smart-stage-1-2024</t>
   </si>
   <si>
-    <t>FY24 SMART Stage 1 Awards</t>
-  </si>
-  <si>
     <t>Wyoming's Work Zone Statewide Enterprise Data Environment</t>
   </si>
   <si>
@@ -858,9 +847,6 @@
   </si>
   <si>
     <t>https://www.transportation.gov/grants/smart/smart-stage-2</t>
-  </si>
-  <si>
-    <t>SMART Stage 2 Awards</t>
   </si>
   <si>
     <t>Scalable Operations and Advanced Remote Technologies (SOAR)</t>
@@ -1228,6 +1214,376 @@
   </si>
   <si>
     <t>69A3552047141</t>
+  </si>
+  <si>
+    <t>Telemobility UTC</t>
+  </si>
+  <si>
+    <t>69A3552047139</t>
+  </si>
+  <si>
+    <t>69A3552047138</t>
+  </si>
+  <si>
+    <t>Center for Automated Vehicles Research with Multimodal Assured Navigation</t>
+  </si>
+  <si>
+    <t>Automated Vehicle Services for People with Disabilities--Involved Responsive Engineering (ASPIRE) Center</t>
+  </si>
+  <si>
+    <t>69A3552047140</t>
+  </si>
+  <si>
+    <t>69A3551747116</t>
+  </si>
+  <si>
+    <t>Center for Teaching Old Models New Tricks (TOMNET)</t>
+  </si>
+  <si>
+    <t>69A3551747117</t>
+  </si>
+  <si>
+    <t>Center for Connected Multimodal Mobility (C2M2)</t>
+  </si>
+  <si>
+    <t>Center for Underground Transportation Infrastructure</t>
+  </si>
+  <si>
+    <t>69A3551747118</t>
+  </si>
+  <si>
+    <t>Center for Transportation, Environment, and Community Health (CTECH)</t>
+  </si>
+  <si>
+    <t>69A3551747119</t>
+  </si>
+  <si>
+    <t>69A3551747120</t>
+  </si>
+  <si>
+    <t>Freight Mobility Research Institute (FMRI)</t>
+  </si>
+  <si>
+    <t>Accelerated Bridge Construction (ABC) University Transportation Center</t>
+  </si>
+  <si>
+    <t>69A3551747121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inspecting and Preserving Infrastructure through Robotic Exploration (INSPIRE) </t>
+  </si>
+  <si>
+    <t>69A3551747126</t>
+  </si>
+  <si>
+    <t>Small Urban, Rural, and Tribal Center on Mobility (SURTCOM)</t>
+  </si>
+  <si>
+    <t>69A3551747122</t>
+  </si>
+  <si>
+    <t>Urban Mobility and Equity Center (UMEC)</t>
+  </si>
+  <si>
+    <t>69A3551747123</t>
+  </si>
+  <si>
+    <t>Connected Cities for Smart Mobility towards Accessible and
+Resilient Transportation  (C2SMART)</t>
+  </si>
+  <si>
+    <t>Center for Advanced Transportation Mobility (CATM)</t>
+  </si>
+  <si>
+    <t>69A3551747125</t>
+  </si>
+  <si>
+    <t>Mineta Consortium for Transportation Mobility (MCTM)</t>
+  </si>
+  <si>
+    <t>69A3551747127</t>
+  </si>
+  <si>
+    <t>Center for Advancing Research in Transportation Emissions, Energy and Health (CARTEEH)</t>
+  </si>
+  <si>
+    <t>69A3551747128</t>
+  </si>
+  <si>
+    <t>Center for Safety Equity in Transportation (C-SET)</t>
+  </si>
+  <si>
+    <t>69A3551747129</t>
+  </si>
+  <si>
+    <t>69A3551747130</t>
+  </si>
+  <si>
+    <t>Safety Research Using Simulation (SAFERSIM)</t>
+  </si>
+  <si>
+    <t>69A3551747131</t>
+  </si>
+  <si>
+    <t>Rail Transportation Engineering Advancement and Management (RailTEAM)</t>
+  </si>
+  <si>
+    <t>69A3551747132</t>
+  </si>
+  <si>
+    <t>Center for Advanced Multimodal Mobility Solutions and Education (CAMMSE)</t>
+  </si>
+  <si>
+    <t>69A3551747133</t>
+  </si>
+  <si>
+    <t>Center for Transportation Equity, Decisions and Dollar (CTEDD)</t>
+  </si>
+  <si>
+    <t>69A3551747134</t>
+  </si>
+  <si>
+    <t>Cooperative Mobility for Competitive Megaregions (CM2)</t>
+  </si>
+  <si>
+    <t>69A3551747135</t>
+  </si>
+  <si>
+    <t>University Transportation Centers Program Moving Ahead for Progress in the 21st Century Act (MAP-21) Awards</t>
+  </si>
+  <si>
+    <t>https://www.transportation.gov/utc/2013-utc-grantees</t>
+  </si>
+  <si>
+    <t>National Center for Strategic Transportation Policies, Investments, and Decisions (NCT)</t>
+  </si>
+  <si>
+    <t>DTRT13-G-UTC30</t>
+  </si>
+  <si>
+    <t>DTRT13-G-UTC29</t>
+  </si>
+  <si>
+    <t>693KA9-21-C-00010</t>
+  </si>
+  <si>
+    <t>https://ror.org/05q0y0j38</t>
+  </si>
+  <si>
+    <t>Federal Aviation Administration</t>
+  </si>
+  <si>
+    <t>https://www.usaspending.gov/award/CONT_AWD_693KA921C00010_6920_-NONE-_-NONE-</t>
+  </si>
+  <si>
+    <t>KSU Cabin Air Quality 2021</t>
+  </si>
+  <si>
+    <t>Technologies for Safe and Efficient Transportation Center (SET)</t>
+  </si>
+  <si>
+    <t>DTRT12-G-UTG11</t>
+  </si>
+  <si>
+    <t>Center for Advanced Infrastructure and Transportation</t>
+  </si>
+  <si>
+    <t>New England University Transportation Center</t>
+  </si>
+  <si>
+    <t>University Transportation Research Center</t>
+  </si>
+  <si>
+    <t>Mid-Atlantic Transportation Sustainability Center</t>
+  </si>
+  <si>
+    <t>Southeastern Transportation Center</t>
+  </si>
+  <si>
+    <t>Center for Roadway Safety Solutions</t>
+  </si>
+  <si>
+    <t>Southern Plains Regional Transportation Center</t>
+  </si>
+  <si>
+    <t>Midwest Transportation Center</t>
+  </si>
+  <si>
+    <t>Mountain-Plains Consortium</t>
+  </si>
+  <si>
+    <t>University of California Center on Economic Competitiveness in Transportation</t>
+  </si>
+  <si>
+    <t>Pacific Northwest Transportation Consortium</t>
+  </si>
+  <si>
+    <t>Maritime Transportation Research and Education Center</t>
+  </si>
+  <si>
+    <t>National University Rail Center</t>
+  </si>
+  <si>
+    <t>Metropolitan Transportation University Transportation Center</t>
+  </si>
+  <si>
+    <t>Data-Supported Transportation Operations and Planning Center</t>
+  </si>
+  <si>
+    <t>Marine Engine Testing and Emissions Laboratory</t>
+  </si>
+  <si>
+    <t>Center for Environmentally Sustainable Transportation in Cold Climates</t>
+  </si>
+  <si>
+    <t>Electric Vehicle Transportation Center</t>
+  </si>
+  <si>
+    <t>Small Urban and Rural Livability Center</t>
+  </si>
+  <si>
+    <t>National Center for Transit Research</t>
+  </si>
+  <si>
+    <t>Transportation Research Center for Livable Communities</t>
+  </si>
+  <si>
+    <t>Center for Safe and Accessible Transportation for an Aging Population</t>
+  </si>
+  <si>
+    <t>Crash-Imminent Safety University Transportation Center</t>
+  </si>
+  <si>
+    <t>Safety Research Using Simulation Center</t>
+  </si>
+  <si>
+    <t>Center for Advancing Transportation Leadership and Safety</t>
+  </si>
+  <si>
+    <t>Institute for Safety and Operations of Large-Area Rural-Urban Intermodal Systems</t>
+  </si>
+  <si>
+    <t>University Transportation Center for Railway Safety</t>
+  </si>
+  <si>
+    <t>Accelerated Bridge Construction University Transportation Center</t>
+  </si>
+  <si>
+    <t>University Transportation Center for Highway Pavement Preservation</t>
+  </si>
+  <si>
+    <t>University Transportation Center for Research on Concrete Applications for Sustainable Transportation</t>
+  </si>
+  <si>
+    <t>DTRT12-G-UTC16</t>
+  </si>
+  <si>
+    <t>DTRT12-G-UTC01</t>
+  </si>
+  <si>
+    <t>DTRT13-G-UTC33</t>
+  </si>
+  <si>
+    <t>DTRT13-G-UTC32</t>
+  </si>
+  <si>
+    <t>DTRT12-G-UTC34</t>
+  </si>
+  <si>
+    <t>DTRT13‐G‐UTC58</t>
+  </si>
+  <si>
+    <t>DTRT12-G-UTC36</t>
+  </si>
+  <si>
+    <t>DTRT13-G-UTC37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTRT13-G-UTC38 </t>
+  </si>
+  <si>
+    <t>DTRT13-G-UTC40</t>
+  </si>
+  <si>
+    <t>DTRT12-G-UTC10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacTrans Center 1 (SAFETY-LU): </t>
+  </si>
+  <si>
+    <t>Transportation Informatics University Transportation Center (TRANSINFO)</t>
+  </si>
+  <si>
+    <t>DTRT13-G-UTC48</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DTRT12-G-UTC18</t>
+  </si>
+  <si>
+    <t>DTRT13-G-UTC50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DTRT12-G-UTC57</t>
+  </si>
+  <si>
+    <t>DTRT13-G-UTC43</t>
+  </si>
+  <si>
+    <t>DTRT13-G-UTC49</t>
+  </si>
+  <si>
+    <t>DTRT13-G-UTC51</t>
+  </si>
+  <si>
+    <t>DTRT13-G-UTC46</t>
+  </si>
+  <si>
+    <t>DTRT13-G-UTC56</t>
+  </si>
+  <si>
+    <t>DTRT13-G-UTC60</t>
+  </si>
+  <si>
+    <t>DTRT13-G-UTC42</t>
+  </si>
+  <si>
+    <t>DTRT13-G-UTC47</t>
+  </si>
+  <si>
+    <t>DTRT13-G-UTC54</t>
+  </si>
+  <si>
+    <t>DTRT13-G-UTC59</t>
+  </si>
+  <si>
+    <t>DTRT13-G-UTC41</t>
+  </si>
+  <si>
+    <t>DTRT13-G-UTC44</t>
+  </si>
+  <si>
+    <t>DTRT13-G-UTC45</t>
+  </si>
+  <si>
+    <t>FY22 Strengthening Mobility and Revolutionizing Transportation (SMART) Stage 1 Awards</t>
+  </si>
+  <si>
+    <t>FY23 Strengthening Mobility and Revolutionizing Transportation (SMART) Stage 1 Awards</t>
+  </si>
+  <si>
+    <t>FY24 Strengthening Mobility and Revolutionizing Transportation (SMART) Stage 1 Awards</t>
+  </si>
+  <si>
+    <t>Strengthening Mobility and Revolutionizing Transportation (SMART) Stage 2 Awards</t>
+  </si>
+  <si>
+    <t>University Transportation Centers Program Safe, Accountable, Flexible, Efficient, Transportation Equity Act: A Legacy for Users (SAFETEA-LU) Awards</t>
+  </si>
+  <si>
+    <t>AI-Powered Smart Sensors &amp; Integrated Data Management Dashboard</t>
+  </si>
+  <si>
+    <t>https://www.transportation.gov/utc/fy05-fy10-utcs</t>
   </si>
 </sst>
 </file>
@@ -1283,43 +1639,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1330,36 +1650,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{902D4D93-BC3F-43B7-A08E-9BD9B59E62BC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="7">
-    <queryTableFields count="6">
-      <queryTableField id="1" name="Column1" tableColumnId="1"/>
-      <queryTableField id="2" name="Column2" tableColumnId="2"/>
-      <queryTableField id="3" name="Column3" tableColumnId="3"/>
-      <queryTableField id="4" name="Column4" tableColumnId="4"/>
-      <queryTableField id="5" name="Column5" tableColumnId="5"/>
-      <queryTableField id="6" name="Column6" tableColumnId="6"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6FC2BD0-07A2-4586-9CFD-FE91D7CE0CE3}" name="contract_funder_info" displayName="contract_funder_info" ref="A1:F193" tableType="queryTable">
-  <autoFilter ref="A1:F193" xr:uid="{B6FC2BD0-07A2-4586-9CFD-FE91D7CE0CE3}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7D5C9C3C-DDEB-472A-892A-53474B460A76}" uniqueName="1" name="contact_number" queryTableFieldId="1" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{5A4AE5FF-34CF-4304-B5E0-5D738289DE2E}" uniqueName="2" name="funder_name" queryTableFieldId="2" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{5B3EFAAA-434A-4574-8C33-B587C79FC1D3}" uniqueName="3" name="funder_identifier" queryTableFieldId="3" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{C1DF8A08-CD5A-4B0C-A8C0-53D78AC0A467}" uniqueName="4" name="contract_uri" queryTableFieldId="4" dataDxfId="4" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{41EDE090-5876-4B8B-8E83-FF0B0CAD30CD}" uniqueName="5" name="contract_title" queryTableFieldId="5" dataDxfId="2" totalsRowDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{1DE6ED65-4605-4A00-AA97-606D0710FF96}" uniqueName="6" name="project_or_program_name" queryTableFieldId="6" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1659,20 +1949,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E982E6CA-AACC-4991-90A9-17BC587E8FB0}">
-  <dimension ref="A1:F193"/>
+  <dimension ref="A1:F252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="X192" sqref="X192"/>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="A253" sqref="A253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="61.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="81.140625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="61.140625" customWidth="1"/>
+    <col min="5" max="5" width="55.85546875" customWidth="1"/>
+    <col min="6" max="6" width="83.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1688,14 +1978,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1709,15 +1999,15 @@
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -1729,15 +2019,15 @@
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -1749,15 +2039,15 @@
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -1769,15 +2059,15 @@
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -1789,15 +2079,15 @@
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -1809,15 +2099,15 @@
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -1829,15 +2119,15 @@
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -1849,15 +2139,15 @@
         <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -1869,15 +2159,15 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
@@ -1889,15 +2179,15 @@
         <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
@@ -1909,15 +2199,15 @@
         <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -1929,15 +2219,15 @@
         <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
@@ -1949,15 +2239,15 @@
         <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
@@ -1969,15 +2259,15 @@
         <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
@@ -1989,15 +2279,15 @@
         <v>9</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
@@ -2009,15 +2299,15 @@
         <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
@@ -2029,15 +2319,15 @@
         <v>9</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
@@ -2049,15 +2339,15 @@
         <v>9</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>7</v>
@@ -2069,15 +2359,15 @@
         <v>9</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>7</v>
@@ -2089,15 +2379,15 @@
         <v>9</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>7</v>
@@ -2109,15 +2399,15 @@
         <v>9</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
@@ -2129,15 +2419,15 @@
         <v>9</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
@@ -2149,15 +2439,15 @@
         <v>9</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>7</v>
@@ -2169,15 +2459,15 @@
         <v>9</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>7</v>
@@ -2189,15 +2479,15 @@
         <v>9</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>7</v>
@@ -2209,15 +2499,15 @@
         <v>9</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>7</v>
@@ -2229,15 +2519,15 @@
         <v>9</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>7</v>
@@ -2249,15 +2539,15 @@
         <v>9</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>7</v>
@@ -2269,15 +2559,15 @@
         <v>9</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>7</v>
@@ -2289,15 +2579,15 @@
         <v>9</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>7</v>
@@ -2309,15 +2599,15 @@
         <v>9</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>7</v>
@@ -2329,15 +2619,15 @@
         <v>9</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>7</v>
@@ -2349,15 +2639,15 @@
         <v>9</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>7</v>
@@ -2369,15 +2659,15 @@
         <v>9</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F35" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>7</v>
@@ -2389,15 +2679,15 @@
         <v>9</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>7</v>
@@ -2409,15 +2699,15 @@
         <v>9</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F37" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>7</v>
@@ -2429,15 +2719,15 @@
         <v>9</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F38" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>7</v>
@@ -2449,15 +2739,15 @@
         <v>9</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F39" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>7</v>
@@ -2469,15 +2759,15 @@
         <v>9</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>7</v>
@@ -2489,15 +2779,15 @@
         <v>9</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>7</v>
@@ -2509,15 +2799,15 @@
         <v>9</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>7</v>
@@ -2529,15 +2819,15 @@
         <v>9</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F43" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>7</v>
@@ -2549,15 +2839,15 @@
         <v>9</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F44" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>7</v>
@@ -2569,15 +2859,15 @@
         <v>9</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>7</v>
@@ -2589,15 +2879,15 @@
         <v>9</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F46" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>7</v>
@@ -2609,15 +2899,15 @@
         <v>9</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F47" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>7</v>
@@ -2629,15 +2919,15 @@
         <v>9</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F48" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>7</v>
@@ -2649,15 +2939,15 @@
         <v>9</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F49" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>7</v>
@@ -2669,15 +2959,15 @@
         <v>9</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F50" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>7</v>
@@ -2689,15 +2979,15 @@
         <v>9</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F51" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>7</v>
@@ -2709,15 +2999,15 @@
         <v>9</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F52" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>7</v>
@@ -2729,15 +3019,15 @@
         <v>9</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F53" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>7</v>
@@ -2749,15 +3039,15 @@
         <v>9</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>7</v>
@@ -2769,15 +3059,15 @@
         <v>9</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F55" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>7</v>
@@ -2789,15 +3079,15 @@
         <v>9</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>7</v>
@@ -2809,15 +3099,15 @@
         <v>9</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F57" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>7</v>
@@ -2829,15 +3119,15 @@
         <v>9</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>7</v>
@@ -2849,15 +3139,15 @@
         <v>9</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F59" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>7</v>
@@ -2869,675 +3159,675 @@
         <v>9</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E61" s="2" t="s">
+    </row>
+    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="B62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F62" s="2" t="s">
+      <c r="B63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F64" s="2" t="s">
+      <c r="B65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F66" s="2" t="s">
+      <c r="B67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F67" s="2" t="s">
+      <c r="B68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F68" s="2" t="s">
+      <c r="B69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F69" s="2" t="s">
+      <c r="B70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F70" s="2" t="s">
+      <c r="B71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F71" s="2" t="s">
+      <c r="B72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F72" s="2" t="s">
+      <c r="B73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F73" s="2" t="s">
+      <c r="B74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F75" s="2" t="s">
+      <c r="B76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F76" s="2" t="s">
+      <c r="B77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F77" s="2" t="s">
+      <c r="B78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F78" s="2" t="s">
+      <c r="B79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F79" s="2" t="s">
+      <c r="B80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F80" s="2" t="s">
+      <c r="B81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F81" s="2" t="s">
+      <c r="B82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F82" s="2" t="s">
+      <c r="B83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F83" s="2" t="s">
+      <c r="B84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F84" s="2" t="s">
+      <c r="B85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F85" s="2" t="s">
+      <c r="B86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F86" s="2" t="s">
+      <c r="B87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="B88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>7</v>
@@ -3546,718 +3836,718 @@
         <v>8</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>130</v>
+        <v>505</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E95" s="2" t="s">
+      <c r="B96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F95" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="B97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="B98" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="B99" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="B100" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="B101" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="B102" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="B103" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="B104" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="B105" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+      <c r="B106" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="B107" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+      <c r="B108" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F108" s="2" t="s">
+      <c r="B109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="B112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="B113" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="B114" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F114" s="2" t="s">
+      <c r="B115" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="B118" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="B119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+      <c r="B120" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="B121" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="B122" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="B123" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="B124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="B125" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F125" s="2" t="s">
+      <c r="B126" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F127" s="2" t="s">
+      <c r="B129" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+      <c r="E129" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>7</v>
@@ -4266,18 +4556,18 @@
         <v>8</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>270</v>
+        <v>507</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>7</v>
@@ -4286,19 +4576,19 @@
         <v>8</v>
       </c>
       <c r="D131" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F131" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E131" s="2" t="s">
+    </row>
+    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F131" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="B132" s="1" t="s">
         <v>7</v>
       </c>
@@ -4306,1196 +4596,2438 @@
         <v>8</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>270</v>
+        <v>507</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F133" s="2" t="s">
+      <c r="B136" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F136" s="2" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E139" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F139" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C177" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F177" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E178" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F178" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F190" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="2"/>
-      <c r="F187" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
+    </row>
+    <row r="191" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
-      <c r="E188" s="2"/>
-      <c r="F188" s="2" t="s">
+      <c r="B192" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F192" s="2" t="s">
         <v>384</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
-      <c r="E189" s="2"/>
-      <c r="F189" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
-      <c r="E190" s="2"/>
-      <c r="F190" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
-      <c r="E191" s="2"/>
-      <c r="F191" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
-      <c r="E192" s="2"/>
-      <c r="F192" s="2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F196" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
-      <c r="E193" s="2"/>
-      <c r="F193" s="2" t="s">
-        <v>391</v>
+    </row>
+    <row r="197" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>443</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F220" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>477</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D244" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B245" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D250" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3C18B3-D31C-4287-B49D-ED526FB8AE1B}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AF3132-6D72-45E7-9251-4677C08462C1}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Funder_Contract_Info.xlsx
+++ b/Funder_Contract_Info.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\repos\Code Repos\doi-parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{29788E2F-33C8-4925-B4FF-3DF1972C19A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AB14E1-E26B-4657-9C66-8F367F575830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{233C8D30-E45A-4D2C-8AD9-7093AC20D128}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{233C8D30-E45A-4D2C-8AD9-7093AC20D128}"/>
   </bookViews>
   <sheets>
     <sheet name="contract_funder_info" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">contract_funder_info!$A$1:$A$252</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">contract_funder_info!$A$1:$F$219</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="516">
   <si>
     <t>contact_number</t>
   </si>
@@ -1584,6 +1584,21 @@
   </si>
   <si>
     <t>https://www.transportation.gov/utc/fy05-fy10-utcs</t>
+  </si>
+  <si>
+    <t>DTRT13-G-UTC55</t>
+  </si>
+  <si>
+    <t>DTRT13-G-UTC53</t>
+  </si>
+  <si>
+    <t>DTRT13-G-UTC39</t>
+  </si>
+  <si>
+    <t>DTRT13-G-UTC35</t>
+  </si>
+  <si>
+    <t>DTRT13-G-UTC27</t>
   </si>
 </sst>
 </file>
@@ -1625,7 +1640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1635,6 +1650,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1949,9 +1967,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E982E6CA-AACC-4991-90A9-17BC587E8FB0}">
-  <dimension ref="A1:F252"/>
+  <dimension ref="A1:F253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
       <selection activeCell="A253" sqref="A253"/>
     </sheetView>
   </sheetViews>
@@ -6326,7 +6344,9 @@
       </c>
     </row>
     <row r="219" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A219" s="1"/>
+      <c r="A219" s="1" t="s">
+        <v>515</v>
+      </c>
       <c r="B219" s="1" t="s">
         <v>356</v>
       </c>
@@ -6464,7 +6484,9 @@
       </c>
     </row>
     <row r="226" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A226" s="1"/>
+      <c r="A226" s="1" t="s">
+        <v>514</v>
+      </c>
       <c r="B226" s="1" t="s">
         <v>356</v>
       </c>
@@ -6542,7 +6564,9 @@
       </c>
     </row>
     <row r="230" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A230" s="1"/>
+      <c r="A230" s="1" t="s">
+        <v>513</v>
+      </c>
       <c r="B230" s="1" t="s">
         <v>356</v>
       </c>
@@ -6840,6 +6864,9 @@
       </c>
     </row>
     <row r="245" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>512</v>
+      </c>
       <c r="B245" s="1" t="s">
         <v>356</v>
       </c>
@@ -6877,7 +6904,9 @@
       </c>
     </row>
     <row r="247" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A247" s="1"/>
+      <c r="A247" s="1" t="s">
+        <v>511</v>
+      </c>
       <c r="B247" s="1" t="s">
         <v>356</v>
       </c>
@@ -6992,6 +7021,23 @@
       </c>
       <c r="F252" s="1" t="s">
         <v>485</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -7005,7 +7051,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AF3132-6D72-45E7-9251-4677C08462C1}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
